--- a/biology/Médecine/Caspar_Schamberger/Caspar_Schamberger.xlsx
+++ b/biology/Médecine/Caspar_Schamberger/Caspar_Schamberger.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Caspar Schamberger (1er septembre 1623, Leipzig, électorat de Saxe - 8 avril 1706) était un chirurgien allemand. Son nom est synonyme de la première école de médecine occidentale du Japon et du début des Études néerlandaises (rangaku).
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1637, Schamberger commença à étudier la chirurgie avec la guilde de chirurgiens dans sa ville natale, Leipzig. Trois ans plus tard, il voyagea dans le Nord de l'Allemagne, au Danemark, en Suède, et aux Pays-Bas. En 1643, il entra dans la Compagnie néerlandaise des Indes orientales (VOC), signant un contrat de quatre ans. Schamberger quitta l'Europe la même année à bord de l'Eiland Mauritius, mais le bateau coula quatre mois plus tard près du cap de Bonne-Espérance.
 En juillet 1644, Schamberger arriva finalement à Batavia (Jakarta), le centre administratif de l'empire colonial néerlandais. Les années suivantes, il travailla comme chirurgien de bord, visitant Goa la portugaise, Ceylan, Gamron (Bandar-Abbas) et Kismis (Perse), puis retourna à Batavia en 1646. En été 1649, il arriva à Nagasaki et commença à travailler à Dejima, le comptoir commercial néerlandais au Japon. Plus tard, il se rendit à Edo en tant que membre d'une ambassade spéciale envoyée au Japon à cause des relations nippo-néerlandaises sérieusement tendues. En raison de l'état de santé du shogun Tokugawa Iemitsu, la visite a été remise plusieurs fois. Pendant ce temps, Schamberger a attiré l'attention de l'envoyé impérial Inoue Masashige, qui était responsable de la sécurité intérieure de l'empire et des relations avec le VOC. Inoue, qui montrait un grand intérêt pour l'Occident, présenta Schamberger à des seigneurs féodaux et Schamberger commença à s'occuper de patients importants.
@@ -548,7 +562,9 @@
           <t>Littérature</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Wolfgang Michel : Von Leipzig nach Japan. Iudicium Verlag, Munich, 1999.  (ISBN 3-89129-442-5)
 Wolfgang Michel : Der Ost-Indischen und angrenzenden Königreiche, vornehmste Seltenheiten betreffende kurze Erläuterung -- Neue Funde zum Leben und Werk des Leipziger Chirurgen und Handelsmanns Caspar Schamberger (1623-1706). Kyushu University, The Faculty of Languages and Cultures Library, No 1. Fukuoka: Hana-Shoin, 2010.  (ISBN 978-4-903554-71-6)</t>
